--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.193104333333333</v>
+        <v>0.3893403333333333</v>
       </c>
       <c r="N2">
-        <v>3.579313</v>
+        <v>1.168021</v>
       </c>
       <c r="O2">
-        <v>0.03883297235786565</v>
+        <v>0.01344665141573655</v>
       </c>
       <c r="P2">
-        <v>0.03883297235786565</v>
+        <v>0.01344665141573655</v>
       </c>
       <c r="Q2">
-        <v>179.0079224819329</v>
+        <v>66.15501853493234</v>
       </c>
       <c r="R2">
-        <v>1611.071302337396</v>
+        <v>595.395166814391</v>
       </c>
       <c r="S2">
-        <v>0.01612542037191728</v>
+        <v>0.005971906564985569</v>
       </c>
       <c r="T2">
-        <v>0.01612542037191728</v>
+        <v>0.00597190656498557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.530898</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N3">
-        <v>88.59269400000001</v>
+        <v>3.579313</v>
       </c>
       <c r="O3">
-        <v>0.9611670276421344</v>
+        <v>0.04120625760907917</v>
       </c>
       <c r="P3">
-        <v>0.9611670276421344</v>
+        <v>0.04120625760907917</v>
       </c>
       <c r="Q3">
-        <v>4430.680999403406</v>
+        <v>202.7271066678803</v>
       </c>
       <c r="R3">
-        <v>39876.12899463065</v>
+        <v>1824.543960010923</v>
       </c>
       <c r="S3">
-        <v>0.3991253161236902</v>
+        <v>0.01830046103866128</v>
       </c>
       <c r="T3">
-        <v>0.3991253161236901</v>
+        <v>0.01830046103866129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.382243</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>205.146729</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.193104333333333</v>
+        <v>0.087271</v>
       </c>
       <c r="N4">
-        <v>3.579313</v>
+        <v>0.261813</v>
       </c>
       <c r="O4">
-        <v>0.03883297235786565</v>
+        <v>0.003014079496094877</v>
       </c>
       <c r="P4">
-        <v>0.03883297235786565</v>
+        <v>0.003014079496094878</v>
       </c>
       <c r="Q4">
-        <v>81.58715044635301</v>
+        <v>14.828709302047</v>
       </c>
       <c r="R4">
-        <v>734.284354017177</v>
+        <v>133.458383718423</v>
       </c>
       <c r="S4">
-        <v>0.007349546766719701</v>
+        <v>0.001338608444110651</v>
       </c>
       <c r="T4">
-        <v>0.0073495467667197</v>
+        <v>0.001338608444110651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.382243</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>205.146729</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.1892604742946246</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.530898</v>
+        <v>27.28472966666666</v>
       </c>
       <c r="N5">
-        <v>88.59269400000001</v>
+        <v>81.85418899999999</v>
       </c>
       <c r="O5">
-        <v>0.9611670276421344</v>
+        <v>0.9423330114790893</v>
       </c>
       <c r="P5">
-        <v>0.9611670276421344</v>
+        <v>0.9423330114790894</v>
       </c>
       <c r="Q5">
-        <v>2019.389043044214</v>
+        <v>4636.102767379058</v>
       </c>
       <c r="R5">
-        <v>18174.50138739793</v>
+        <v>41724.92490641151</v>
       </c>
       <c r="S5">
-        <v>0.1819109275279049</v>
+        <v>0.4185075171256933</v>
       </c>
       <c r="T5">
-        <v>0.1819109275279049</v>
+        <v>0.4185075171256935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.15794</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>114.47382</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.193104333333333</v>
+        <v>0.3893403333333333</v>
       </c>
       <c r="N6">
-        <v>3.579313</v>
+        <v>1.168021</v>
       </c>
       <c r="O6">
-        <v>0.03883297235786565</v>
+        <v>0.01344665141573655</v>
       </c>
       <c r="P6">
-        <v>0.03883297235786565</v>
+        <v>0.01344665141573655</v>
       </c>
       <c r="Q6">
-        <v>45.52640356507334</v>
+        <v>26.623965283701</v>
       </c>
       <c r="R6">
-        <v>409.73763208566</v>
+        <v>239.615687553309</v>
       </c>
       <c r="S6">
-        <v>0.004101116784830886</v>
+        <v>0.002403382790675603</v>
       </c>
       <c r="T6">
-        <v>0.004101116784830885</v>
+        <v>0.002403382790675603</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.15794</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>114.47382</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.105609139239639</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.530898</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N7">
-        <v>88.59269400000001</v>
+        <v>3.579313</v>
       </c>
       <c r="O7">
-        <v>0.9611670276421344</v>
+        <v>0.04120625760907917</v>
       </c>
       <c r="P7">
-        <v>0.9611670276421344</v>
+        <v>0.04120625760907917</v>
       </c>
       <c r="Q7">
-        <v>1126.83823403012</v>
+        <v>81.58715044635301</v>
       </c>
       <c r="R7">
-        <v>10141.54410627108</v>
+        <v>734.284354017177</v>
       </c>
       <c r="S7">
-        <v>0.1015080224548081</v>
+        <v>0.007364986816710883</v>
       </c>
       <c r="T7">
-        <v>0.1015080224548081</v>
+        <v>0.007364986816710883</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>104.737245</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>314.211735</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.289879649970129</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.2898796499701289</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.193104333333333</v>
+        <v>0.087271</v>
       </c>
       <c r="N8">
-        <v>3.579313</v>
+        <v>0.261813</v>
       </c>
       <c r="O8">
-        <v>0.03883297235786565</v>
+        <v>0.003014079496094877</v>
       </c>
       <c r="P8">
-        <v>0.03883297235786565</v>
+        <v>0.003014079496094878</v>
       </c>
       <c r="Q8">
-        <v>124.962460870895</v>
+        <v>5.967786728853</v>
       </c>
       <c r="R8">
-        <v>1124.662147838055</v>
+        <v>53.710080559677</v>
       </c>
       <c r="S8">
-        <v>0.01125688843439779</v>
+        <v>0.0005387205012368369</v>
       </c>
       <c r="T8">
-        <v>0.01125688843439779</v>
+        <v>0.000538720501236837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>104.737245</v>
+        <v>68.382243</v>
       </c>
       <c r="H9">
-        <v>314.211735</v>
+        <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.289879649970129</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.2898796499701289</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,524 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.530898</v>
+        <v>27.28472966666666</v>
       </c>
       <c r="N9">
-        <v>88.59269400000001</v>
+        <v>81.85418899999999</v>
       </c>
       <c r="O9">
-        <v>0.9611670276421344</v>
+        <v>0.9423330114790893</v>
       </c>
       <c r="P9">
-        <v>0.9611670276421344</v>
+        <v>0.9423330114790894</v>
       </c>
       <c r="Q9">
-        <v>3092.984898896011</v>
+        <v>1865.791014255309</v>
       </c>
       <c r="R9">
-        <v>27836.8640900641</v>
+        <v>16792.11912829778</v>
       </c>
       <c r="S9">
-        <v>0.2786227615357312</v>
+        <v>0.1684275789453342</v>
       </c>
       <c r="T9">
-        <v>0.2786227615357312</v>
+        <v>0.1684275789453342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H10">
+        <v>159.823902</v>
+      </c>
+      <c r="I10">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J10">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3893403333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.168021</v>
+      </c>
+      <c r="O10">
+        <v>0.01344665141573655</v>
+      </c>
+      <c r="P10">
+        <v>0.01344665141573655</v>
+      </c>
+      <c r="Q10">
+        <v>20.74196375977133</v>
+      </c>
+      <c r="R10">
+        <v>186.677673837942</v>
+      </c>
+      <c r="S10">
+        <v>0.001872406240537347</v>
+      </c>
+      <c r="T10">
+        <v>0.001872406240537347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H11">
+        <v>159.823902</v>
+      </c>
+      <c r="I11">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J11">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.193104333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.579313</v>
+      </c>
+      <c r="O11">
+        <v>0.04120625760907917</v>
+      </c>
+      <c r="P11">
+        <v>0.04120625760907917</v>
+      </c>
+      <c r="Q11">
+        <v>63.56219668214732</v>
+      </c>
+      <c r="R11">
+        <v>572.0597701393259</v>
+      </c>
+      <c r="S11">
+        <v>0.005737848889734391</v>
+      </c>
+      <c r="T11">
+        <v>0.005737848889734391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H12">
+        <v>159.823902</v>
+      </c>
+      <c r="I12">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J12">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.087271</v>
+      </c>
+      <c r="N12">
+        <v>0.261813</v>
+      </c>
+      <c r="O12">
+        <v>0.003014079496094877</v>
+      </c>
+      <c r="P12">
+        <v>0.003014079496094878</v>
+      </c>
+      <c r="Q12">
+        <v>4.649330583814</v>
+      </c>
+      <c r="R12">
+        <v>41.843975254326</v>
+      </c>
+      <c r="S12">
+        <v>0.0004197016107191603</v>
+      </c>
+      <c r="T12">
+        <v>0.0004197016107191604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>53.27463399999999</v>
+      </c>
+      <c r="H13">
+        <v>159.823902</v>
+      </c>
+      <c r="I13">
+        <v>0.1392470275793777</v>
+      </c>
+      <c r="J13">
+        <v>0.1392470275793778</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.28472966666666</v>
+      </c>
+      <c r="N13">
+        <v>81.85418899999999</v>
+      </c>
+      <c r="O13">
+        <v>0.9423330114790893</v>
+      </c>
+      <c r="P13">
+        <v>0.9423330114790894</v>
+      </c>
+      <c r="Q13">
+        <v>1453.583986780608</v>
+      </c>
+      <c r="R13">
+        <v>13082.25588102547</v>
+      </c>
+      <c r="S13">
+        <v>0.1312170708383868</v>
+      </c>
+      <c r="T13">
+        <v>0.1312170708383869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H14">
+        <v>273.054848</v>
+      </c>
+      <c r="I14">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J14">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3893403333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.168021</v>
+      </c>
+      <c r="O14">
+        <v>0.01344665141573655</v>
+      </c>
+      <c r="P14">
+        <v>0.01344665141573655</v>
+      </c>
+      <c r="Q14">
+        <v>35.43708851286755</v>
+      </c>
+      <c r="R14">
+        <v>318.933796615808</v>
+      </c>
+      <c r="S14">
+        <v>0.003198955819538036</v>
+      </c>
+      <c r="T14">
+        <v>0.003198955819538036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H15">
+        <v>273.054848</v>
+      </c>
+      <c r="I15">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J15">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.193104333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.579313</v>
+      </c>
+      <c r="O15">
+        <v>0.04120625760907917</v>
+      </c>
+      <c r="P15">
+        <v>0.04120625760907917</v>
+      </c>
+      <c r="Q15">
+        <v>108.5943074621582</v>
+      </c>
+      <c r="R15">
+        <v>977.3487671594239</v>
+      </c>
+      <c r="S15">
+        <v>0.009802960863972605</v>
+      </c>
+      <c r="T15">
+        <v>0.009802960863972606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H16">
+        <v>273.054848</v>
+      </c>
+      <c r="I16">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J16">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.087271</v>
+      </c>
+      <c r="N16">
+        <v>0.261813</v>
+      </c>
+      <c r="O16">
+        <v>0.003014079496094877</v>
+      </c>
+      <c r="P16">
+        <v>0.003014079496094878</v>
+      </c>
+      <c r="Q16">
+        <v>7.943256546602667</v>
+      </c>
+      <c r="R16">
+        <v>71.489308919424</v>
+      </c>
+      <c r="S16">
+        <v>0.0007170489400282287</v>
+      </c>
+      <c r="T16">
+        <v>0.0007170489400282289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>91.01828266666666</v>
+      </c>
+      <c r="H17">
+        <v>273.054848</v>
+      </c>
+      <c r="I17">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="J17">
+        <v>0.2378998101932138</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.28472966666666</v>
+      </c>
+      <c r="N17">
+        <v>81.85418899999999</v>
+      </c>
+      <c r="O17">
+        <v>0.9423330114790893</v>
+      </c>
+      <c r="P17">
+        <v>0.9423330114790894</v>
+      </c>
+      <c r="Q17">
+        <v>2483.409237284252</v>
+      </c>
+      <c r="R17">
+        <v>22350.68313555827</v>
+      </c>
+      <c r="S17">
+        <v>0.2241808445696749</v>
+      </c>
+      <c r="T17">
+        <v>0.224180844569675</v>
       </c>
     </row>
   </sheetData>
